--- a/dist/checklists/core/xlsx/mixs/general/stx_seq_mixs_core.xlsx
+++ b/dist/checklists/core/xlsx/mixs/general/stx_seq_mixs_core.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="332">
   <si>
     <t>Study ID</t>
   </si>
@@ -270,12 +270,6 @@
   </si>
   <si>
     <t>e.g. 0.1218</t>
-  </si>
-  <si>
-    <t>The name (or acronym) representing the lead institution responsible for the study.</t>
-  </si>
-  <si>
-    <t>e.g. EI</t>
   </si>
   <si>
     <t>Imaging Protocol ID</t>
@@ -1572,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1590,10 +1584,9 @@
     <col min="10" max="12" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="57" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1636,11 +1629,8 @@
       <c r="N1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
@@ -1683,11 +1673,8 @@
       <c r="N2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>83</v>
-      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
@@ -1730,11 +1717,8 @@
       <c r="N3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>84</v>
-      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1751,14 +1735,13 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A4:N4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:O4">
+  <conditionalFormatting sqref="A1:N4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -1812,233 +1795,233 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="U1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="T2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="T3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2111,152 +2094,152 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2321,170 +2304,170 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="J2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="O2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="R2" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="N3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="Q3" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2542,89 +2525,89 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2669,35 +2652,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3">
